--- a/biology/Médecine/Les_Femmes_en_blanc/Les_Femmes_en_blanc.xlsx
+++ b/biology/Médecine/Les_Femmes_en_blanc/Les_Femmes_en_blanc.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Les Femmes en blanc est une série de bande dessinée humoristique scénarisée par Raoul Cauvin et dessinée par Philippe Bercovici.
@@ -513,7 +525,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette bande dessinée a pour thème le domaine hospitalier que la série aborde avec un humour tantôt ironique, tantôt comique. Elle aborde de nombreuses anecdotes sur les patients et le personnel hospitalier, notamment les difficultés des infirmières qui souffrent de la surcharge de travail et du caractère des patients, et d'autre part, les problèmes des patients qui bien souvent angoissent à l'idée d'être opérés ou parfois souffrent de pathologies incongrues. 
 La bande dessinée est composée d'histoires courtes de longueur variable (minimum une page, souvent deux à trois, mais cela peut aller jusqu'à cinq).
@@ -546,6 +560,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -571,7 +587,9 @@
           <t>Personnages</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Au fil des tomes, dont les titres contiennent des jeux de mots, plusieurs personnages apparaissent régulièrement comme le Docteur Minet, l'infirmière Nathalie, l'infirmière Lisette ou aussi bien la jeune stagiaire Louise souvent vue avec son père.
 </t>
@@ -604,8 +622,13 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Albums
-Aux éditions Dupuis :
+          <t>Albums</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Aux éditions Dupuis :
 Tome 1 : Les femmes en blanc (1986)
 Tome 2 : Gaze à tous les étages (1987)
 Tome 3 : Superpiquées (1987)
@@ -647,9 +670,43 @@
 Tome 39 : Baby Boum ! (2017)
 Tome 40 : Soufflez ! (2018)
 Tome 41 : Traitement et sale air ! (2019)
-Tome 42 : La radio de la méduse (2020)
-Mini-récits
-Les mini-récits sont parus sous le titre Les femmes en blanc présentent. Certains ont ensuite été publiés en albums au format réduit[1].
+Tome 42 : La radio de la méduse (2020)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Les_Femmes_en_blanc</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Les_Femmes_en_blanc</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Publication</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Mini-récits</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les mini-récits sont parus sous le titre Les femmes en blanc présentent. Certains ont ensuite été publiés en albums au format réduit.
 Les Dermatologues : épiderme alors !
 Supplément du Spirou n° 3666 du 16 juillet 2008
 Les Chirurgiens esthétiques en stock
@@ -670,9 +727,44 @@
 Supplément du Spirou n° 3970 du 14 mai 2014
 Podologue, c'est le pied !
 Supplément du Spirou N°4009 du 11 février 2015
-Revues
-Les gags sont publiés dans le magazine Spirou, et les personnages font également partie des contenus promotionnels du journal (dessins en réponse au courrier des lecteurs, dans le cadre de concours…).
-Le journal a également publié les mini-récits à plier soi-même (histoires en 30 pages format A7)[2].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Les_Femmes_en_blanc</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Les_Femmes_en_blanc</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Publication</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Revues</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les gags sont publiés dans le magazine Spirou, et les personnages font également partie des contenus promotionnels du journal (dessins en réponse au courrier des lecteurs, dans le cadre de concours…).
+Le journal a également publié les mini-récits à plier soi-même (histoires en 30 pages format A7).
 </t>
         </is>
       </c>
